--- a/GUI + Reviews/202503/SBF120.xlsx
+++ b/GUI + Reviews/202503/SBF120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202503\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC19234A-39F8-4509-B92D-5E40DD0B8F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E636063-8E24-4522-8741-840EC1F90740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E0833F7-5A40-4DBF-B114-1A09D138CEE5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1E0833F7-5A40-4DBF-B114-1A09D138CEE5}"/>
   </bookViews>
   <sheets>
     <sheet name="PX4" sheetId="4" r:id="rId1"/>
@@ -422,12 +422,6 @@
     <t>FR001400AJ45</t>
   </si>
   <si>
-    <t>NEOEN</t>
-  </si>
-  <si>
-    <t>FR0011675362</t>
-  </si>
-  <si>
     <t>NEXANS</t>
   </si>
   <si>
@@ -792,6 +786,12 @@
   </si>
   <si>
     <t>FDJ UNITED</t>
+  </si>
+  <si>
+    <t>EXOSENS</t>
+  </si>
+  <si>
+    <t>FR001400Q9V2</t>
   </si>
 </sst>
 </file>
@@ -996,9 +996,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1036,7 +1036,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1142,7 +1142,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1284,7 +1284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1294,9 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A217781-2F38-4FE8-AAA7-1DBD5F988400}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1306,28 +1304,28 @@
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1349,7 +1347,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1371,7 +1369,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1383,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
@@ -1393,7 +1391,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1415,7 +1413,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1437,7 +1435,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1459,7 +1457,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1481,7 +1479,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1503,7 +1501,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1525,7 +1523,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1547,7 +1545,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1569,7 +1567,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1591,7 +1589,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1613,7 +1611,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1635,7 +1633,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1644,7 +1642,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -1657,7 +1655,7 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1679,7 +1677,7 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1701,7 +1699,7 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1723,7 +1721,7 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1745,7 +1743,7 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1767,7 +1765,7 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1789,7 +1787,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1811,7 +1809,7 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,7 +1831,7 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1855,7 +1853,7 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1877,7 +1875,7 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1886,10 +1884,10 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>1</v>
@@ -1899,7 +1897,7 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1921,7 +1919,7 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1943,7 +1941,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1965,7 +1963,7 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1987,7 +1985,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2009,7 +2007,7 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2031,7 +2029,7 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2053,7 +2051,7 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2075,7 +2073,7 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2097,7 +2095,7 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2119,7 +2117,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2141,7 +2139,7 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2150,10 +2148,10 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>1</v>
@@ -2163,7 +2161,7 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2185,7 +2183,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2207,7 +2205,7 @@
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2229,7 +2227,7 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2238,10 +2236,10 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>1</v>
@@ -2251,7 +2249,7 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2273,7 +2271,7 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2295,7 +2293,7 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2317,7 +2315,7 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2326,7 +2324,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>85</v>
@@ -2339,7 +2337,7 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2361,7 +2359,7 @@
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2383,7 +2381,7 @@
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2405,7 +2403,7 @@
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2427,7 +2425,7 @@
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2449,7 +2447,7 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2471,7 +2469,7 @@
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2493,7 +2491,7 @@
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2515,7 +2513,7 @@
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2537,7 +2535,7 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2559,7 +2557,7 @@
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2581,7 +2579,7 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,7 +2601,7 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2625,7 +2623,7 @@
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2647,7 +2645,7 @@
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2669,7 +2667,7 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2691,7 +2689,7 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2713,7 +2711,7 @@
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,10 +2720,10 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>1</v>
@@ -2735,7 +2733,7 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2744,10 +2742,10 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>1</v>
@@ -2757,7 +2755,7 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2779,7 +2777,7 @@
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2801,7 +2799,7 @@
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2823,7 +2821,7 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2845,7 +2843,7 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2854,20 +2852,20 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="3" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F72" s="4">
-        <v>152960584</v>
+        <v>50782552</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2876,10 +2874,10 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>1</v>
@@ -2889,7 +2887,7 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2898,10 +2896,10 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>1</v>
@@ -2911,7 +2909,7 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2920,10 +2918,10 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>1</v>
@@ -2933,7 +2931,7 @@
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2942,10 +2940,10 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>1</v>
@@ -2955,7 +2953,7 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,10 +2962,10 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>1</v>
@@ -2977,7 +2975,7 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -2986,10 +2984,10 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>1</v>
@@ -2999,7 +2997,7 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,10 +3006,10 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>1</v>
@@ -3021,7 +3019,7 @@
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3030,10 +3028,10 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>1</v>
@@ -3043,7 +3041,7 @@
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3052,10 +3050,10 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>1</v>
@@ -3065,7 +3063,7 @@
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3074,10 +3072,10 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>1</v>
@@ -3087,7 +3085,7 @@
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3096,10 +3094,10 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>1</v>
@@ -3109,7 +3107,7 @@
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3118,10 +3116,10 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>1</v>
@@ -3131,7 +3129,7 @@
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3140,10 +3138,10 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>1</v>
@@ -3153,7 +3151,7 @@
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,10 +3160,10 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>1</v>
@@ -3175,7 +3173,7 @@
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3184,10 +3182,10 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>1</v>
@@ -3197,7 +3195,7 @@
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3206,10 +3204,10 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>1</v>
@@ -3219,7 +3217,7 @@
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3228,10 +3226,10 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>1</v>
@@ -3241,7 +3239,7 @@
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,10 +3248,10 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>1</v>
@@ -3263,7 +3261,7 @@
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3272,10 +3270,10 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>1</v>
@@ -3285,7 +3283,7 @@
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3294,10 +3292,10 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>1</v>
@@ -3307,7 +3305,7 @@
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -3316,10 +3314,10 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>1</v>
@@ -3329,7 +3327,7 @@
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3338,10 +3336,10 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>1</v>
@@ -3351,7 +3349,7 @@
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3360,10 +3358,10 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>1</v>
@@ -3373,7 +3371,7 @@
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3382,10 +3380,10 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>1</v>
@@ -3395,7 +3393,7 @@
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3404,20 +3402,20 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F97" s="4">
         <v>105876416</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3426,10 +3424,10 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>1</v>
@@ -3439,7 +3437,7 @@
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3448,10 +3446,10 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>1</v>
@@ -3461,7 +3459,7 @@
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3470,10 +3468,10 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>1</v>
@@ -3483,7 +3481,7 @@
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3492,10 +3490,10 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>1</v>
@@ -3505,7 +3503,7 @@
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3514,10 +3512,10 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>1</v>
@@ -3527,7 +3525,7 @@
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,10 +3534,10 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>1</v>
@@ -3549,7 +3547,7 @@
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3558,10 +3556,10 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>1</v>
@@ -3571,7 +3569,7 @@
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3580,10 +3578,10 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>1</v>
@@ -3593,7 +3591,7 @@
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3602,10 +3600,10 @@
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>1</v>
@@ -3615,7 +3613,7 @@
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3624,10 +3622,10 @@
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>1</v>
@@ -3637,7 +3635,7 @@
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -3646,10 +3644,10 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>1</v>
@@ -3659,7 +3657,7 @@
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,10 +3666,10 @@
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>1</v>
@@ -3681,7 +3679,7 @@
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -3690,10 +3688,10 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>1</v>
@@ -3703,7 +3701,7 @@
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,10 +3710,10 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>1</v>
@@ -3725,7 +3723,7 @@
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -3734,10 +3732,10 @@
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>1</v>
@@ -3747,7 +3745,7 @@
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -3756,10 +3754,10 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>1</v>
@@ -3769,7 +3767,7 @@
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3778,10 +3776,10 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>1</v>
@@ -3791,7 +3789,7 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -3800,10 +3798,10 @@
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>1</v>
@@ -3813,7 +3811,7 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -3822,10 +3820,10 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>1</v>
@@ -3835,7 +3833,7 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -3844,10 +3842,10 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>1</v>
@@ -3857,7 +3855,7 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,10 +3864,10 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>1</v>
@@ -3879,7 +3877,7 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -3888,10 +3886,10 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>1</v>
@@ -3901,7 +3899,7 @@
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -3910,10 +3908,10 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>1</v>
@@ -3923,7 +3921,7 @@
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -3932,10 +3930,10 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>1</v>
@@ -3945,7 +3943,7 @@
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -3954,10 +3952,10 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>1</v>
@@ -3967,7 +3965,7 @@
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
